--- a/data/db.intermediate.xlsx
+++ b/data/db.intermediate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Пациент</t>
   </si>
@@ -35,58 +35,118 @@
     <t xml:space="preserve">1а</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 2</t>
   </si>
   <si>
     <t xml:space="preserve">1б</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 3</t>
   </si>
   <si>
     <t xml:space="preserve">2а</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 4</t>
   </si>
   <si>
     <t xml:space="preserve">2б</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 5</t>
   </si>
   <si>
     <t xml:space="preserve">3а</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 6</t>
   </si>
   <si>
     <t xml:space="preserve">3б</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 7</t>
   </si>
   <si>
     <t xml:space="preserve">4а</t>
   </si>
   <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 8</t>
   </si>
   <si>
     <t xml:space="preserve">4б</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 9</t>
   </si>
   <si>
     <t xml:space="preserve">5а</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient 10</t>
   </si>
   <si>
     <t xml:space="preserve">5б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223</t>
   </si>
   <si>
     <t xml:space="preserve">Пол</t>
@@ -478,137 +538,137 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>501</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>500</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>235</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>234</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>233</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>232</v>
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>231</v>
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>230</v>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>229</v>
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>223</v>
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -630,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -644,139 +704,139 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -798,18 +858,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>36.5</v>
@@ -822,8 +882,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>36.6</v>
@@ -836,8 +896,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>36.7</v>
@@ -850,8 +910,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>36.8</v>
@@ -864,8 +924,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>22</v>
       </c>
       <c r="B6" t="n">
         <v>36.5</v>
@@ -878,8 +938,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>36.5</v>
@@ -892,8 +952,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
       <c r="B8" t="n">
         <v>36.6</v>
@@ -906,8 +966,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>36.7</v>
@@ -920,8 +980,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>38</v>
       </c>
       <c r="B10" t="n">
         <v>36.6</v>
@@ -934,8 +994,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
       <c r="B11" t="n">
         <v>36.7</v>
@@ -966,130 +1026,130 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>223</v>
+      <c r="A2" t="s">
+        <v>43</v>
       </c>
       <c r="B2" t="n">
         <v>66.54</v>
       </c>
       <c r="C2" t="n">
-        <v>4.845</v>
+        <v>4.85</v>
       </c>
       <c r="D2" t="n">
-        <v>6.0399</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>229</v>
+      <c r="A3" t="s">
+        <v>39</v>
       </c>
       <c r="B3" t="n">
         <v>63.54</v>
       </c>
       <c r="C3" t="n">
-        <v>3.999</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.9931</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>230</v>
+      <c r="A4" t="s">
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>70.36</v>
       </c>
       <c r="C4" t="n">
-        <v>4.084</v>
+        <v>4.08</v>
       </c>
       <c r="D4" t="n">
-        <v>5.9308</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>231</v>
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
       <c r="B5" t="n">
         <v>70.15</v>
       </c>
       <c r="C5" t="n">
-        <v>4.668</v>
+        <v>4.67</v>
       </c>
       <c r="D5" t="n">
-        <v>5.9172</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>232</v>
+      <c r="A6" t="s">
+        <v>27</v>
       </c>
       <c r="B6" t="n">
         <v>66.13</v>
       </c>
       <c r="C6" t="n">
-        <v>4.794</v>
+        <v>4.79</v>
       </c>
       <c r="D6" t="n">
-        <v>6.0332</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>233</v>
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
       <c r="B7" t="n">
         <v>71.99</v>
       </c>
       <c r="C7" t="n">
-        <v>4.378</v>
+        <v>4.38</v>
       </c>
       <c r="D7" t="n">
-        <v>5.9398</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>234</v>
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>74.57</v>
       </c>
       <c r="C8" t="n">
-        <v>4.214</v>
+        <v>4.21</v>
       </c>
       <c r="D8" t="n">
-        <v>5.9872</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>235</v>
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>62.62</v>
       </c>
       <c r="C9" t="n">
-        <v>5.185</v>
+        <v>5.19</v>
       </c>
       <c r="D9" t="n">
-        <v>6.0018</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>500</v>
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>71.2</v>
@@ -1102,8 +1162,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>501</v>
+      <c r="A11" t="s">
+        <v>7</v>
       </c>
       <c r="B11" t="n">
         <v>69.9</v>
